--- a/xlsx/country_comparison/solidarity_support_dem_positive.xlsx
+++ b/xlsx/country_comparison/solidarity_support_dem_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t xml:space="preserve">Tertiary diploma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rural urbanicity</t>
   </si>
   <si>
     <t xml:space="preserve">Cities urbanicity</t>
@@ -470,13 +467,10 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.633494335624418</v>
@@ -503,27 +497,24 @@
         <v>0.653257669981798</v>
       </c>
       <c r="J2" t="n">
-        <v>0.647752120281726</v>
+        <v>0.624637466823515</v>
       </c>
       <c r="K2" t="n">
-        <v>0.624637466823515</v>
+        <v>0.614818711991719</v>
       </c>
       <c r="L2" t="n">
-        <v>0.614818711991719</v>
+        <v>0.621469809728287</v>
       </c>
       <c r="M2" t="n">
-        <v>0.621469809728287</v>
+        <v>0.649230707080978</v>
       </c>
       <c r="N2" t="n">
-        <v>0.649230707080978</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.63460186999631</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.563185705845955</v>
@@ -550,27 +541,24 @@
         <v>0.618903417997978</v>
       </c>
       <c r="J3" t="n">
-        <v>0.543778038386886</v>
+        <v>0.554346092995966</v>
       </c>
       <c r="K3" t="n">
-        <v>0.554346092995966</v>
+        <v>0.557245529126644</v>
       </c>
       <c r="L3" t="n">
-        <v>0.557245529126644</v>
+        <v>0.536923974077453</v>
       </c>
       <c r="M3" t="n">
-        <v>0.536923974077453</v>
+        <v>0.579751507883941</v>
       </c>
       <c r="N3" t="n">
-        <v>0.579751507883941</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.577523278052827</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.549025299914154</v>
@@ -597,27 +585,24 @@
         <v>0.5792612186691</v>
       </c>
       <c r="J4" t="n">
-        <v>0.512023092713753</v>
+        <v>0.528191306335116</v>
       </c>
       <c r="K4" t="n">
-        <v>0.528191306335116</v>
+        <v>0.556855144917135</v>
       </c>
       <c r="L4" t="n">
-        <v>0.556855144917135</v>
+        <v>0.534894953919556</v>
       </c>
       <c r="M4" t="n">
-        <v>0.534894953919556</v>
+        <v>0.552305801703199</v>
       </c>
       <c r="N4" t="n">
-        <v>0.552305801703199</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.548950136774086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.492207052765953</v>
@@ -644,27 +629,24 @@
         <v>0.515610024135441</v>
       </c>
       <c r="J5" t="n">
-        <v>0.469895840990229</v>
+        <v>0.485177587888852</v>
       </c>
       <c r="K5" t="n">
-        <v>0.485177587888852</v>
+        <v>0.532618114396009</v>
       </c>
       <c r="L5" t="n">
-        <v>0.532618114396009</v>
+        <v>0.486216527307368</v>
       </c>
       <c r="M5" t="n">
-        <v>0.486216527307368</v>
+        <v>0.474648780559285</v>
       </c>
       <c r="N5" t="n">
-        <v>0.474648780559285</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.506307549535337</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.487936223741052</v>
@@ -691,27 +673,24 @@
         <v>0.51736533730538</v>
       </c>
       <c r="J6" t="n">
-        <v>0.465898928051163</v>
+        <v>0.459776115288658</v>
       </c>
       <c r="K6" t="n">
-        <v>0.459776115288658</v>
+        <v>0.489426047892406</v>
       </c>
       <c r="L6" t="n">
-        <v>0.489426047892406</v>
+        <v>0.477551882369283</v>
       </c>
       <c r="M6" t="n">
-        <v>0.477551882369283</v>
+        <v>0.492525560884487</v>
       </c>
       <c r="N6" t="n">
-        <v>0.492525560884487</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.506692053811295</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.48659573221636</v>
@@ -738,27 +717,24 @@
         <v>0.53724183564045</v>
       </c>
       <c r="J7" t="n">
-        <v>0.49518916159165</v>
+        <v>0.495844412850385</v>
       </c>
       <c r="K7" t="n">
-        <v>0.495844412850385</v>
+        <v>0.440164838849627</v>
       </c>
       <c r="L7" t="n">
-        <v>0.440164838849627</v>
+        <v>0.47616031784831</v>
       </c>
       <c r="M7" t="n">
-        <v>0.47616031784831</v>
+        <v>0.515692690280062</v>
       </c>
       <c r="N7" t="n">
-        <v>0.515692690280062</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.513448349869046</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.484505093491948</v>
@@ -785,27 +761,24 @@
         <v>0.521185889908383</v>
       </c>
       <c r="J8" t="n">
-        <v>0.430218928846143</v>
+        <v>0.457999339019065</v>
       </c>
       <c r="K8" t="n">
-        <v>0.457999339019065</v>
+        <v>0.506726004431684</v>
       </c>
       <c r="L8" t="n">
-        <v>0.506726004431684</v>
+        <v>0.46131967620421</v>
       </c>
       <c r="M8" t="n">
-        <v>0.46131967620421</v>
+        <v>0.485099166532278</v>
       </c>
       <c r="N8" t="n">
-        <v>0.485099166532278</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.494420188601052</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.472605946730509</v>
@@ -832,27 +805,24 @@
         <v>0.518760172199004</v>
       </c>
       <c r="J9" t="n">
-        <v>0.452007462533109</v>
+        <v>0.471039067877245</v>
       </c>
       <c r="K9" t="n">
-        <v>0.471039067877245</v>
+        <v>0.474631412979862</v>
       </c>
       <c r="L9" t="n">
-        <v>0.474631412979862</v>
+        <v>0.451727955502955</v>
       </c>
       <c r="M9" t="n">
-        <v>0.451727955502955</v>
+        <v>0.482328405262321</v>
       </c>
       <c r="N9" t="n">
-        <v>0.482328405262321</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.482162398407506</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B10" t="n">
         <v>0.463777077783225</v>
@@ -879,27 +849,24 @@
         <v>0.511682650612703</v>
       </c>
       <c r="J10" t="n">
-        <v>0.473879588198143</v>
+        <v>0.464766422138925</v>
       </c>
       <c r="K10" t="n">
-        <v>0.464766422138925</v>
+        <v>0.44213064875344</v>
       </c>
       <c r="L10" t="n">
-        <v>0.44213064875344</v>
+        <v>0.435595898597022</v>
       </c>
       <c r="M10" t="n">
-        <v>0.435595898597022</v>
+        <v>0.489161492090718</v>
       </c>
       <c r="N10" t="n">
-        <v>0.489161492090718</v>
-      </c>
-      <c r="O10" t="n">
         <v>0.498736181814793</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
         <v>0.373830435892481</v>
@@ -926,21 +893,18 @@
         <v>0.407019794752119</v>
       </c>
       <c r="J11" t="n">
-        <v>0.371454921802118</v>
+        <v>0.368249472586357</v>
       </c>
       <c r="K11" t="n">
-        <v>0.368249472586357</v>
+        <v>0.390155753371837</v>
       </c>
       <c r="L11" t="n">
-        <v>0.390155753371837</v>
+        <v>0.368892196750691</v>
       </c>
       <c r="M11" t="n">
-        <v>0.368892196750691</v>
+        <v>0.368034690708948</v>
       </c>
       <c r="N11" t="n">
-        <v>0.368034690708948</v>
-      </c>
-      <c r="O11" t="n">
         <v>0.389197551577041</v>
       </c>
     </row>
